--- a/template/Cisco_UCS/blank_UCSチェックシート.xlsx
+++ b/template/Cisco_UCS/blank_UCSチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="201">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>2. 検査シート編集</t>
-  </si>
-  <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
   </si>
   <si>
     <t>検査ドメイン</t>
@@ -777,10 +774,27 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>getconfig -r {Redmineプロジェクト名}</t>
-    <rPh sb="27" eb="28">
+    <t>getconfig -rp {Redmineプロジェクト名}</t>
+    <rPh sb="28" eb="29">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)が必須入力項目となります。</t>
+    <rPh sb="40" eb="42">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(*)</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1361,12 +1375,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1377,6 +1385,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1706,7 +1720,7 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1774,7 +1788,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="21"/>
       <c r="B4" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -1793,7 +1807,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -1937,7 +1951,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -1956,7 +1970,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="21" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -1991,12 +2005,14 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+      <c r="B16" s="21" t="s">
+        <v>200</v>
+      </c>
       <c r="C16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>5</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>6</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -2012,12 +2028,14 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="21" t="s">
+        <v>200</v>
+      </c>
       <c r="C17" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>7</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>8</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -2033,12 +2051,14 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="21" t="s">
+        <v>200</v>
+      </c>
       <c r="C18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>9</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>10</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -2054,12 +2074,14 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="21" t="s">
+        <v>200</v>
+      </c>
       <c r="C19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>11</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>12</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -2077,10 +2099,10 @@
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>13</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>14</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -2098,10 +2120,10 @@
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>15</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>16</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -2119,10 +2141,10 @@
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>18</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -2156,7 +2178,7 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
       <c r="B24" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -2192,15 +2214,15 @@
     <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
+      <c r="C26" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -2212,25 +2234,25 @@
       <c r="A27" s="21"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="F27" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="G27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="H27" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="I27" s="24" t="s">
         <v>25</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>26</v>
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
@@ -2242,28 +2264,28 @@
     <row r="28" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="D28" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="E28" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="F28" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="G28" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="H28" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="I28" s="24" t="s">
         <v>33</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>34</v>
       </c>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
@@ -2278,16 +2300,16 @@
         <v>1</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D29" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>189</v>
-      </c>
       <c r="F29" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
@@ -2489,7 +2511,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -2526,7 +2548,7 @@
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
@@ -2563,7 +2585,7 @@
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
@@ -2598,7 +2620,7 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
@@ -2635,7 +2657,7 @@
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -2671,7 +2693,7 @@
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
@@ -2690,7 +2712,7 @@
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
@@ -2709,7 +2731,7 @@
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -2743,7 +2765,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -2780,7 +2802,7 @@
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
@@ -2817,7 +2839,7 @@
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -2851,7 +2873,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -2888,7 +2910,7 @@
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="21"/>
       <c r="B62" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
@@ -2925,7 +2947,7 @@
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
@@ -2960,7 +2982,7 @@
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
       <c r="B66" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
@@ -2979,7 +3001,7 @@
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="21"/>
       <c r="B67" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
@@ -3016,7 +3038,7 @@
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
@@ -3051,7 +3073,7 @@
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="21"/>
       <c r="B71" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
@@ -3088,7 +3110,7 @@
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
@@ -3107,7 +3129,7 @@
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
@@ -3125,25 +3147,25 @@
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="43"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="41"/>
       <c r="O75" s="21"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
@@ -3162,7 +3184,7 @@
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
@@ -3180,31 +3202,31 @@
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="43"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="41"/>
       <c r="O78" s="21"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" t="s">
         <v>50</v>
-      </c>
-      <c r="C80" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3233,7 +3255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3248,64 +3270,64 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -3584,7 +3606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3606,87 +3630,87 @@
   <sheetData>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3" s="37" t="s">
+      <c r="L3" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="M3" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="N3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="M3" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="37" t="s">
+      <c r="Q3" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="R3" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="U3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q3" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="T3" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="U3" s="37" t="s">
+      <c r="V3" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="W3" s="37" t="s">
         <v>62</v>
-      </c>
-      <c r="W3" s="37" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>65</v>
-      </c>
       <c r="C4" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -3705,31 +3729,31 @@
       <c r="S4" s="30"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="W4" s="31" t="s">
         <v>67</v>
-      </c>
-      <c r="W4" s="31" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
@@ -3746,122 +3770,122 @@
       <c r="U5" s="30"/>
       <c r="V5" s="30"/>
       <c r="W5" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="G6" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="H6" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="I6" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="J6" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="K6" s="30" t="s">
         <v>145</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>146</v>
       </c>
       <c r="L6" s="30"/>
       <c r="M6" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="N6" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="O6" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="P6" s="30" t="s">
         <v>149</v>
-      </c>
-      <c r="P6" s="30" t="s">
-        <v>150</v>
       </c>
       <c r="Q6" s="30"/>
       <c r="R6" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S6" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="T6" s="30" t="s">
         <v>151</v>
-      </c>
-      <c r="T6" s="30" t="s">
-        <v>152</v>
       </c>
       <c r="U6" s="30"/>
       <c r="V6" s="30"/>
       <c r="W6" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="30" t="s">
+      <c r="I7" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>157</v>
-      </c>
       <c r="K7" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L7" s="30"/>
       <c r="M7" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="O7" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="P7" s="30" t="s">
         <v>160</v>
-      </c>
-      <c r="P7" s="30" t="s">
-        <v>161</v>
       </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
       <c r="W7" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -3874,14 +3898,14 @@
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R8" s="30"/>
       <c r="S8" s="30"/>
@@ -3889,12 +3913,12 @@
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
       <c r="W8" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -3907,14 +3931,14 @@
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R9" s="30"/>
       <c r="S9" s="30"/>
@@ -3922,12 +3946,12 @@
       <c r="U9" s="30"/>
       <c r="V9" s="30"/>
       <c r="W9" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -3940,14 +3964,14 @@
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34"/>
       <c r="P10" s="34"/>
       <c r="Q10" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
@@ -3955,7 +3979,7 @@
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
       <c r="W10" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
@@ -4142,33 +4166,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4219,7 +4243,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4260,396 +4284,396 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="26"/>
       <c r="B7" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
       <c r="B9" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>94</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
       <c r="B12" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="D13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>119</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>103</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>105</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>108</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
       <c r="B19" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
       <c r="B20" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
       <c r="B21" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
       <c r="B24" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
       <c r="B25" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4686,30 +4710,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4717,13 +4741,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4732,7 +4756,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="40"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">

--- a/template/Cisco_UCS/blank_UCSチェックシート.xlsx
+++ b/template/Cisco_UCS/blank_UCSチェックシート.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="217">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -795,6 +795,93 @@
   </si>
   <si>
     <t>(*)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>├─S/N</t>
+  </si>
+  <si>
+    <t>├─機種</t>
+  </si>
+  <si>
+    <t>└─型番</t>
+  </si>
+  <si>
+    <t>chassis</t>
+  </si>
+  <si>
+    <t>シャーシ情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>show chassis detail' コマンドでシャーシ情報検索</t>
+    <rPh sb="30" eb="32">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>シャーシ情報：S/N</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>シャーシ情報：機種</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キシュ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>シャーシ情報：型番</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カタバン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>chassis.sn</t>
+  </si>
+  <si>
+    <t>chassis.productname</t>
+  </si>
+  <si>
+    <t>chassis.productid</t>
+  </si>
+  <si>
+    <t>機種</t>
+    <rPh sb="0" eb="2">
+      <t>キシュ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>型番</t>
+    <rPh sb="0" eb="2">
+      <t>カタバン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>S/N</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -978,20 +1065,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1260,7 +1347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,21 +1438,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1391,6 +1463,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2214,15 +2307,15 @@
     <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -3147,18 +3240,18 @@
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="41"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="36"/>
       <c r="O75" s="21"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
@@ -3202,18 +3295,18 @@
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="40"/>
-      <c r="N78" s="41"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="36"/>
       <c r="O78" s="21"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
@@ -3270,15 +3363,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
@@ -3604,533 +3697,593 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:W16"/>
+  <dimension ref="A3:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="15" width="21.25" customWidth="1"/>
-    <col min="16" max="16" width="29.125" customWidth="1"/>
-    <col min="17" max="18" width="20.875" customWidth="1"/>
-    <col min="19" max="19" width="13.75" customWidth="1"/>
-    <col min="20" max="20" width="29.125" customWidth="1"/>
-    <col min="21" max="21" width="12.25" customWidth="1"/>
-    <col min="22" max="22" width="24.75" customWidth="1"/>
-    <col min="23" max="23" width="11.5" customWidth="1"/>
-    <col min="24" max="1034" width="8.75" customWidth="1"/>
+    <col min="2" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="18" width="21.25" customWidth="1"/>
+    <col min="19" max="19" width="29.125" customWidth="1"/>
+    <col min="20" max="21" width="20.875" customWidth="1"/>
+    <col min="22" max="22" width="13.75" customWidth="1"/>
+    <col min="23" max="23" width="29.125" customWidth="1"/>
+    <col min="24" max="24" width="12.25" customWidth="1"/>
+    <col min="25" max="25" width="24.75" customWidth="1"/>
+    <col min="26" max="26" width="11.5" customWidth="1"/>
+    <col min="27" max="1037" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A3" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="I3" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="J3" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="K3" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="L3" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="M3" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="N3" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="O3" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="P3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="Q3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="R3" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="S3" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="T3" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="U3" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="V3" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="T3" s="37" t="s">
+      <c r="W3" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="U3" s="37" t="s">
+      <c r="X3" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="Y3" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="37" t="s">
+      <c r="Z3" s="32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="Y4" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="Z4" s="42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="K5" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="33" t="s">
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="44" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="I6" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="J6" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="K6" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="L6" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="M6" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="N6" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30" t="s">
+      <c r="O6" s="41"/>
+      <c r="P6" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="Q6" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="R6" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="S6" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30" t="s">
+      <c r="T6" s="41"/>
+      <c r="U6" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="S6" s="30" t="s">
+      <c r="V6" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="T6" s="30" t="s">
+      <c r="W6" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="31" t="s">
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="42" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="I7" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="J7" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="K7" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="L7" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="M7" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="N7" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30" t="s">
+      <c r="O7" s="41"/>
+      <c r="P7" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="Q7" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="R7" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="S7" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30" t="s">
+      <c r="T7" s="41"/>
+      <c r="U7" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="31" t="s">
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="42" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30" t="s">
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="31" t="s">
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="42" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30" t="s">
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="31" t="s">
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="42" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34" t="s">
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="31" t="s">
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="42" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
@@ -4240,10 +4393,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4352,112 +4505,104 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>90</v>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>205</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="25" t="s">
-        <v>91</v>
+      <c r="E8" s="26"/>
+      <c r="F8" s="28" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
       <c r="B9" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>121</v>
+        <v>211</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>201</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="28" t="s">
-        <v>121</v>
+      <c r="F9" s="27" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>93</v>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>202</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>94</v>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>96</v>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>124</v>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27" t="s">
-        <v>124</v>
+      <c r="E12" s="5"/>
+      <c r="F12" s="25" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A13" s="26"/>
       <c r="B13" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>99</v>
+        <v>116</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>121</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>101</v>
+      <c r="E13" s="26"/>
+      <c r="F13" s="28" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4465,19 +4610,19 @@
         <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4485,59 +4630,53 @@
         <v>79</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="25" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>104</v>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>105</v>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>107</v>
+      <c r="B17" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="26" t="s">
         <v>100</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4545,134 +4684,214 @@
         <v>79</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="F18" s="25" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>172</v>
+      <c r="A19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27" t="s">
-        <v>172</v>
+      <c r="E19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>173</v>
+      <c r="A20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27" t="s">
-        <v>173</v>
+      <c r="E20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>174</v>
+      <c r="A21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="E21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>85</v>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>172</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="25" t="s">
-        <v>109</v>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
       <c r="B24" s="26" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="27" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
       <c r="B25" s="26" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4743,7 +4962,7 @@
       <c r="B3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="33" t="s">
         <v>185</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -4756,7 +4975,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="38"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4927,7 +5146,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="36"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -4936,7 +5155,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="36"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -4945,7 +5164,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="36"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -4954,7 +5173,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="36"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -4963,7 +5182,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="36"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -4972,7 +5191,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="36"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -4981,7 +5200,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="36"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -4990,7 +5209,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="36"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -4999,7 +5218,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="36"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -5008,7 +5227,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="36"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5017,7 +5236,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" s="36"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -5026,7 +5245,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="36"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -5035,7 +5254,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="36"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -5044,7 +5263,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="36"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -5053,7 +5272,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="36"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
@@ -5062,7 +5281,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="36"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
@@ -5071,7 +5290,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="36"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -5080,7 +5299,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="36"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -5089,7 +5308,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="36"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
@@ -5098,7 +5317,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="36"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -5107,7 +5326,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="36"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -5116,7 +5335,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="36"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -5125,7 +5344,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="36"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
@@ -5134,7 +5353,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="36"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -5143,7 +5362,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="8"/>
-      <c r="C47" s="36"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
@@ -5152,7 +5371,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="8"/>
-      <c r="C48" s="36"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
@@ -5161,7 +5380,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="8"/>
-      <c r="C49" s="36"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -5170,7 +5389,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="36"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -5179,7 +5398,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="8"/>
-      <c r="C51" s="36"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -5188,7 +5407,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="8"/>
-      <c r="C52" s="36"/>
+      <c r="C52" s="31"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -5197,7 +5416,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="8"/>
-      <c r="C53" s="36"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -5206,7 +5425,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="8"/>
-      <c r="C54" s="36"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
@@ -5215,7 +5434,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="8"/>
-      <c r="C55" s="36"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
@@ -5224,7 +5443,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="8"/>
-      <c r="C56" s="36"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -5233,7 +5452,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="8"/>
-      <c r="C57" s="36"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -5242,7 +5461,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="8"/>
-      <c r="C58" s="36"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
@@ -5251,7 +5470,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="8"/>
-      <c r="C59" s="36"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
@@ -5260,7 +5479,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="8"/>
-      <c r="C60" s="36"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
@@ -5269,7 +5488,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="8"/>
-      <c r="C61" s="36"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
@@ -5278,7 +5497,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="8"/>
-      <c r="C62" s="36"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
@@ -5287,7 +5506,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="8"/>
-      <c r="C63" s="36"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
@@ -5296,7 +5515,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="8"/>
-      <c r="C64" s="36"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
@@ -5305,7 +5524,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="8"/>
-      <c r="C65" s="36"/>
+      <c r="C65" s="31"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
@@ -5314,7 +5533,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="8"/>
-      <c r="C66" s="36"/>
+      <c r="C66" s="31"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
@@ -5323,7 +5542,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="8"/>
-      <c r="C67" s="36"/>
+      <c r="C67" s="31"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
@@ -5332,7 +5551,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="8"/>
-      <c r="C68" s="36"/>
+      <c r="C68" s="31"/>
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
@@ -5341,7 +5560,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="8"/>
-      <c r="C69" s="36"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="8"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -5350,7 +5569,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="8"/>
-      <c r="C70" s="36"/>
+      <c r="C70" s="31"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
@@ -5359,7 +5578,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="8"/>
-      <c r="C71" s="36"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
@@ -5368,7 +5587,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="8"/>
-      <c r="C72" s="36"/>
+      <c r="C72" s="31"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
@@ -5377,7 +5596,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="8"/>
-      <c r="C73" s="36"/>
+      <c r="C73" s="31"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
@@ -5386,7 +5605,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="8"/>
-      <c r="C74" s="36"/>
+      <c r="C74" s="31"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
@@ -5395,7 +5614,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="8"/>
-      <c r="C75" s="36"/>
+      <c r="C75" s="31"/>
       <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
@@ -5404,7 +5623,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="8"/>
-      <c r="C76" s="36"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="8"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
@@ -5413,7 +5632,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="8"/>
-      <c r="C77" s="36"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
@@ -5422,7 +5641,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="8"/>
-      <c r="C78" s="36"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
@@ -5431,7 +5650,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="8"/>
-      <c r="C79" s="36"/>
+      <c r="C79" s="31"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
@@ -5440,7 +5659,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="8"/>
-      <c r="C80" s="36"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
@@ -5449,7 +5668,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="8"/>
-      <c r="C81" s="36"/>
+      <c r="C81" s="31"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -5458,7 +5677,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="8"/>
-      <c r="C82" s="36"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
@@ -5467,7 +5686,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="8"/>
-      <c r="C83" s="36"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="8"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
@@ -5476,7 +5695,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="8"/>
-      <c r="C84" s="36"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="8"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
@@ -5485,7 +5704,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="8"/>
-      <c r="C85" s="36"/>
+      <c r="C85" s="31"/>
       <c r="D85" s="8"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -5494,7 +5713,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="8"/>
-      <c r="C86" s="36"/>
+      <c r="C86" s="31"/>
       <c r="D86" s="8"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
@@ -5503,7 +5722,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="8"/>
-      <c r="C87" s="36"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="8"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
@@ -5512,7 +5731,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="8"/>
-      <c r="C88" s="36"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="8"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
@@ -5521,7 +5740,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="8"/>
-      <c r="C89" s="36"/>
+      <c r="C89" s="31"/>
       <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
@@ -5530,7 +5749,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="8"/>
-      <c r="C90" s="36"/>
+      <c r="C90" s="31"/>
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
@@ -5539,7 +5758,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="8"/>
-      <c r="C91" s="36"/>
+      <c r="C91" s="31"/>
       <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
@@ -5548,7 +5767,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="8"/>
-      <c r="C92" s="36"/>
+      <c r="C92" s="31"/>
       <c r="D92" s="8"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
@@ -5557,7 +5776,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="8"/>
-      <c r="C93" s="36"/>
+      <c r="C93" s="31"/>
       <c r="D93" s="8"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
@@ -5566,7 +5785,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="8"/>
-      <c r="C94" s="36"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="8"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
@@ -5575,7 +5794,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="8"/>
-      <c r="C95" s="36"/>
+      <c r="C95" s="31"/>
       <c r="D95" s="8"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
@@ -5584,7 +5803,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="8"/>
-      <c r="C96" s="36"/>
+      <c r="C96" s="31"/>
       <c r="D96" s="8"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
@@ -5593,7 +5812,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="8"/>
-      <c r="C97" s="36"/>
+      <c r="C97" s="31"/>
       <c r="D97" s="8"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
@@ -5602,7 +5821,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="8"/>
-      <c r="C98" s="36"/>
+      <c r="C98" s="31"/>
       <c r="D98" s="8"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
@@ -5611,7 +5830,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="8"/>
-      <c r="C99" s="36"/>
+      <c r="C99" s="31"/>
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
@@ -5620,7 +5839,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="8"/>
-      <c r="C100" s="36"/>
+      <c r="C100" s="31"/>
       <c r="D100" s="8"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
@@ -5629,7 +5848,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="8"/>
-      <c r="C101" s="36"/>
+      <c r="C101" s="31"/>
       <c r="D101" s="8"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
@@ -5638,7 +5857,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="8"/>
-      <c r="C102" s="36"/>
+      <c r="C102" s="31"/>
       <c r="D102" s="8"/>
     </row>
   </sheetData>

--- a/template/Cisco_UCS/blank_UCSチェックシート.xlsx
+++ b/template/Cisco_UCS/blank_UCSチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="225">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -882,6 +882,38 @@
   </si>
   <si>
     <t>S/N</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ハードウェア</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メモリ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ストレージ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SNMP</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>NTP</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1459,12 +1491,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1484,6 +1510,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1813,7 +1845,7 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2307,15 +2339,15 @@
     <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -3348,7 +3380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3363,15 +3395,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
@@ -3734,13 +3766,13 @@
       <c r="D3" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="37" t="s">
         <v>216</v>
       </c>
       <c r="H3" s="32" t="s">
@@ -3802,348 +3834,348 @@
       </c>
     </row>
     <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" s="41" t="s">
+      <c r="Y4" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" s="42" t="s">
+      <c r="Z4" s="40" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="40" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43" t="s">
+      <c r="I5" s="41"/>
+      <c r="J5" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="44" t="s">
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="42" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="L6" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41" t="s">
+      <c r="O6" s="39"/>
+      <c r="P6" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="Q6" s="41" t="s">
+      <c r="Q6" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="41" t="s">
+      <c r="S6" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41" t="s">
+      <c r="T6" s="39"/>
+      <c r="U6" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="41" t="s">
+      <c r="V6" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="W6" s="41" t="s">
+      <c r="W6" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="42" t="s">
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="40" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="N7" s="41" t="s">
+      <c r="N7" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41" t="s">
+      <c r="O7" s="39"/>
+      <c r="P7" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="Q7" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="R7" s="41" t="s">
+      <c r="R7" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="S7" s="41" t="s">
+      <c r="S7" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41" t="s">
+      <c r="T7" s="39"/>
+      <c r="U7" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="42" t="s">
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="40" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41" t="s">
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="42" t="s">
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="40" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41" t="s">
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="42" t="s">
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="40" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="40" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45" t="s">
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45" t="s">
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="42" t="s">
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="40" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
@@ -4393,505 +4425,584 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.375" customWidth="1"/>
-    <col min="6" max="6" width="53" customWidth="1"/>
-    <col min="7" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="1025" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="4" width="33.25" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="53" customWidth="1"/>
+    <col min="8" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="1026" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>74</v>
+      <c r="B4" s="26" t="s">
+        <v>217</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>80</v>
+      <c r="B5" s="26" t="s">
+        <v>218</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="26" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="26"/>
       <c r="B7" s="26" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
         <v>206</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="28" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
       <c r="B9" s="26" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="27" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="26"/>
       <c r="B10" s="26" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
       <c r="B11" s="26" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>89</v>
+      <c r="B12" s="26" t="s">
+        <v>218</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
       <c r="B13" s="26" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="26"/>
+      <c r="G13" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>92</v>
+      <c r="B14" s="26" t="s">
+        <v>219</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="G14" s="25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>95</v>
+      <c r="B15" s="26" t="s">
+        <v>220</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
       <c r="B16" s="26" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="F17" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="G17" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>117</v>
+      <c r="B18" s="26" t="s">
+        <v>221</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="G18" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>111</v>
+      <c r="B19" s="26" t="s">
+        <v>221</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>112</v>
+      <c r="B20" s="26" t="s">
+        <v>221</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="G20" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>106</v>
+      <c r="B21" s="26" t="s">
+        <v>222</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="G21" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>83</v>
+      <c r="B22" s="26" t="s">
+        <v>223</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
       <c r="B23" s="26" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="26"/>
+      <c r="G23" s="27" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
       <c r="B24" s="26" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="26"/>
+      <c r="G24" s="27" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
       <c r="B25" s="26" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="26"/>
+      <c r="G25" s="27" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>110</v>
+      <c r="B26" s="26" t="s">
+        <v>223</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="G26" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>84</v>
+      <c r="B27" s="26" t="s">
+        <v>224</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="5"/>
+      <c r="G27" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
       <c r="B28" s="26" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="26"/>
+      <c r="G28" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
       <c r="B29" s="26" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="26"/>
+      <c r="G29" s="27" t="s">
         <v>126</v>
       </c>
     </row>

--- a/template/Cisco_UCS/blank_UCSチェックシート.xlsx
+++ b/template/Cisco_UCS/blank_UCSチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="645"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="エラーレポート" sheetId="4" r:id="rId4"/>
     <sheet name="チェックシート(CiscoUCS)" sheetId="5" r:id="rId5"/>
     <sheet name="テンプレート(CiscoUCS)" sheetId="6" r:id="rId6"/>
+    <sheet name="テンプレート(CiscoUCS_sample)" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$74</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="238">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -280,9 +281,6 @@
     <t>bios</t>
   </si>
   <si>
-    <t>BIOS情報</t>
-  </si>
-  <si>
     <t>'show bios' コマンドで各モジュールのBIOS情報検索</t>
   </si>
   <si>
@@ -305,13 +303,6 @@
   </si>
   <si>
     <t>cimc</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>CIMC情報</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -383,16 +374,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>物理ストレージ情報</t>
-    <rPh sb="0" eb="2">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>'show physical-drive detail' コマンドで物理ディスク情報検索</t>
     <rPh sb="34" eb="36">
       <t>ブツリ</t>
@@ -472,13 +453,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ストレージアダプタ情報</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>'show storageadapter detail' コマンドでストレージアダプタ情報検索</t>
     <rPh sb="43" eb="45">
       <t>ジョウホウ</t>
@@ -656,9 +630,6 @@
   <si>
     <t>map</t>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>SNMP情報</t>
   </si>
   <si>
     <t>SNMP情報：ポート</t>
@@ -798,23 +769,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>├─S/N</t>
-  </si>
-  <si>
-    <t>├─機種</t>
-  </si>
-  <si>
-    <t>└─型番</t>
-  </si>
-  <si>
     <t>chassis</t>
-  </si>
-  <si>
-    <t>シャーシ情報</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Y</t>
@@ -889,31 +844,144 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>CPU</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メモリ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ストレージ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SNMP</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>NTP</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>システム情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>機種</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>型番</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>S/N</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
     <t>ハードウェア</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>CPU</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>メモリ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ストレージ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ネットワーク</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>SNMP</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>NTP</t>
+    <t>筐体ステータス</t>
+    <rPh sb="0" eb="2">
+      <t>キョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>BIOSセキュアブート</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>BIOSブートモード</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>BIOSバージョン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>タイムゾーン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CIMCバージョン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>cpu.socket</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>cpu.core</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>cpu.thread</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CPUソケット数</t>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CPUスレッド数</t>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ストレージアダプタ状態</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>HDD容量</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SNMPポート</t>
+  </si>
+  <si>
+    <t>SNMPコミュニティ名</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SNMPアクセス</t>
+  </si>
+  <si>
+    <t>SNMP設定</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -921,11 +989,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-_¥* #,##0.00_-;\-_¥* #,##0.00_-;_-_¥* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-_¥* #,##0_-;\-_¥* #,##0_-;_-_¥* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;¥&quot;* #,##0.00_-;\-&quot;¥&quot;* #,##0.00_-;_-&quot;¥&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;¥&quot;* #,##0_-;\-&quot;¥&quot;* #,##0_-;_-&quot;¥&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1379,7 +1448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1511,6 +1580,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1845,7 +1917,9 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1913,7 +1987,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="21"/>
       <c r="B4" s="21" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -1932,7 +2006,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="21" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -2076,7 +2150,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -2095,7 +2169,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -2131,7 +2205,7 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>4</v>
@@ -2154,7 +2228,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>6</v>
@@ -2177,7 +2251,7 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>8</v>
@@ -2200,7 +2274,7 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>10</v>
@@ -2339,15 +2413,15 @@
     <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -2425,13 +2499,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>187</v>
-      </c>
       <c r="E29" s="24" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>34</v>
@@ -2710,7 +2784,7 @@
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
@@ -2782,7 +2856,7 @@
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -2818,7 +2892,7 @@
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
@@ -2964,7 +3038,7 @@
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="17" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -3107,7 +3181,7 @@
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
       <c r="B66" s="21" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
@@ -3235,7 +3309,7 @@
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
@@ -3290,7 +3364,7 @@
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
@@ -3309,7 +3383,7 @@
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
@@ -3380,13 +3454,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="5" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
     <col min="7" max="7" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
@@ -3395,15 +3470,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
@@ -3767,37 +3842,37 @@
         <v>55</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="M3" s="32" t="s">
         <v>128</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>132</v>
       </c>
       <c r="N3" s="32" t="s">
         <v>56</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P3" s="32" t="s">
         <v>57</v>
@@ -3809,19 +3884,19 @@
         <v>59</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="T3" s="32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="U3" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="W3" s="32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="X3" s="32" t="s">
         <v>60</v>
@@ -3883,23 +3958,23 @@
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
       <c r="E5" s="38" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I5" s="41"/>
       <c r="J5" s="41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L5" s="41"/>
       <c r="M5" s="41"/>
@@ -3916,7 +3991,7 @@
       <c r="X5" s="39"/>
       <c r="Y5" s="39"/>
       <c r="Z5" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -3930,53 +4005,53 @@
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
       <c r="H6" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="M6" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="N6" s="39" t="s">
         <v>141</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>145</v>
       </c>
       <c r="O6" s="39"/>
       <c r="P6" s="39" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q6" s="39" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="R6" s="39" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="S6" s="39" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="T6" s="39"/>
       <c r="U6" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V6" s="39" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="W6" s="39" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="X6" s="39"/>
       <c r="Y6" s="39"/>
       <c r="Z6" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -3990,49 +4065,49 @@
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J7" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="N7" s="39" t="s">
         <v>141</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>145</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="39" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="39" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="R7" s="39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="S7" s="39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="T7" s="39"/>
       <c r="U7" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V7" s="39"/>
       <c r="W7" s="39"/>
       <c r="X7" s="39"/>
       <c r="Y7" s="39"/>
       <c r="Z7" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -4053,14 +4128,14 @@
       <c r="M8" s="39"/>
       <c r="N8" s="39"/>
       <c r="O8" s="39" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P8" s="39"/>
       <c r="Q8" s="39"/>
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
       <c r="T8" s="39" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="U8" s="39"/>
       <c r="V8" s="39"/>
@@ -4068,7 +4143,7 @@
       <c r="X8" s="39"/>
       <c r="Y8" s="39"/>
       <c r="Z8" s="40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -4089,14 +4164,14 @@
       <c r="M9" s="39"/>
       <c r="N9" s="39"/>
       <c r="O9" s="39" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
       <c r="R9" s="39"/>
       <c r="S9" s="39"/>
       <c r="T9" s="39" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="U9" s="39"/>
       <c r="V9" s="39"/>
@@ -4104,24 +4179,24 @@
       <c r="X9" s="39"/>
       <c r="Y9" s="39"/>
       <c r="Z9" s="40" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="43" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
       <c r="E10" s="38" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
@@ -4131,14 +4206,14 @@
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
       <c r="O10" s="43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P10" s="43"/>
       <c r="Q10" s="43"/>
       <c r="R10" s="43"/>
       <c r="S10" s="43"/>
       <c r="T10" s="43" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
@@ -4146,7 +4221,7 @@
       <c r="X10" s="43"/>
       <c r="Y10" s="43"/>
       <c r="Z10" s="40" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -4425,9 +4500,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4473,7 +4550,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>76</v>
@@ -4492,140 +4569,140 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A5" s="26"/>
       <c r="B5" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>80</v>
+        <v>215</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="25" t="s">
-        <v>82</v>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="27" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="26"/>
       <c r="B7" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>123</v>
-      </c>
       <c r="D7" s="26" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="27" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="28" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
       <c r="B9" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>201</v>
+        <v>219</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>221</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="26"/>
       <c r="B10" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>202</v>
+        <v>219</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>222</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="27" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
+      <c r="A11" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="B11" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>213</v>
+        <v>219</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27" t="s">
-        <v>210</v>
+      <c r="F11" s="5"/>
+      <c r="G11" s="25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -4633,148 +4710,132 @@
         <v>79</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
       <c r="B13" s="26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A14" s="26"/>
       <c r="B14" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>92</v>
+        <v>209</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>94</v>
-      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A15" s="26"/>
       <c r="B15" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>95</v>
+        <v>209</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="25" t="s">
-        <v>97</v>
-      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
       <c r="B16" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>124</v>
+        <v>209</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>231</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="26"/>
-      <c r="G16" s="27" t="s">
-        <v>124</v>
-      </c>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>98</v>
+        <v>209</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="26" t="s">
-        <v>100</v>
+      <c r="F17" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A18" s="26"/>
       <c r="B18" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>117</v>
+        <v>210</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>119</v>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4782,22 +4843,20 @@
         <v>79</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="F19" s="5"/>
       <c r="G19" s="25" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4805,22 +4864,22 @@
         <v>79</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4828,22 +4887,22 @@
         <v>79</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>106</v>
+        <v>211</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>100</v>
+      <c r="F21" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4851,159 +4910,228 @@
         <v>79</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="G22" s="25" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="26"/>
+      <c r="A23" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="B23" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>177</v>
+        <v>211</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27" t="s">
-        <v>172</v>
+      <c r="F23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="26"/>
+      <c r="A24" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="B24" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>178</v>
+        <v>212</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27" t="s">
-        <v>173</v>
+      <c r="F24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="26"/>
+      <c r="A25" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="B25" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>179</v>
+        <v>213</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="26"/>
       <c r="B26" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>110</v>
+        <v>213</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>172</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>115</v>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A27" s="26"/>
       <c r="B27" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>84</v>
+        <v>213</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>173</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="25" t="s">
-        <v>109</v>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
       <c r="B28" s="26" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="26"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="B29" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>176</v>
+        <v>213</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27" t="s">
-        <v>126</v>
+      <c r="F29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5043,13 +5171,13 @@
         <v>73</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5057,13 +5185,13 @@
         <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -5071,14 +5199,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>88</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
@@ -5988,4 +6112,965 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="1007" width="8.75" customWidth="1"/>
+    <col min="1008" max="1025" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="8">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="8">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="8">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="8">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="8">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="8">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="8">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="8">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="8">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="8">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="8">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="8">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="8">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="8">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="8">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="8">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="8">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="8">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="8">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="8">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="8">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="8">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="8">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="8">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="8">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="8">
+        <f t="shared" ref="A68:A102" si="1">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="8">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="8">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="8">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="8">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="8">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="8">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="8">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="8">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="8">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="8">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="8">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="8">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="8">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="8"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="8">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="8"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="8">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="8">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="8">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="8">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="8"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="8">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="8"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="8">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="8">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="8">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="8">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="8"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="8">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="8"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="8">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="8"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="8">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="8"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="8">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="8"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="8">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="8"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="8">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="8"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="8">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="8"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="8">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="8"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="8">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="8"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="8"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="8"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/template/Cisco_UCS/blank_UCSチェックシート.xlsx
+++ b/template/Cisco_UCS/blank_UCSチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="645"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -1448,7 +1448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1579,6 +1579,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1917,7 +1920,7 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2413,15 +2416,15 @@
     <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -3454,7 +3457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3470,15 +3473,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
@@ -3534,10 +3537,10 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -4502,18 +4505,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="4" width="33.25" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="53" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="53" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="10" width="13.375" customWidth="1"/>
     <col min="11" max="1026" width="7.375" customWidth="1"/>
   </cols>
@@ -4559,13 +4560,13 @@
         <v>74</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4579,12 +4580,12 @@
       <c r="D5" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4598,12 +4599,12 @@
       <c r="D6" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4617,12 +4618,12 @@
       <c r="D7" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4638,12 +4639,12 @@
       <c r="D8" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="28" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4651,18 +4652,18 @@
       <c r="B9" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>221</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4670,18 +4671,18 @@
       <c r="B10" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="45" t="s">
         <v>222</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4691,18 +4692,18 @@
       <c r="B11" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="45" t="s">
         <v>223</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -4718,12 +4719,12 @@
       <c r="D12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="25" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4737,12 +4738,12 @@
       <c r="D13" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="26"/>
+      <c r="F13" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="28" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4756,11 +4757,11 @@
       <c r="D14" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="26"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
@@ -4773,11 +4774,11 @@
       <c r="D15" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
@@ -4790,11 +4791,11 @@
       <c r="D16" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
@@ -4809,14 +4810,14 @@
       <c r="D17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4830,12 +4831,12 @@
       <c r="D18" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="26"/>
+      <c r="F18" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4851,12 +4852,12 @@
       <c r="D19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="25" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4872,14 +4873,14 @@
       <c r="D20" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4895,14 +4896,14 @@
       <c r="D21" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4918,14 +4919,14 @@
       <c r="D22" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4941,14 +4942,14 @@
       <c r="D23" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4964,14 +4965,14 @@
       <c r="D24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4987,12 +4988,12 @@
       <c r="D25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5006,12 +5007,12 @@
       <c r="D26" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5025,12 +5026,12 @@
       <c r="D27" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5044,12 +5045,12 @@
       <c r="D28" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -5065,14 +5066,14 @@
       <c r="D29" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5088,12 +5089,12 @@
       <c r="D30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="25" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5107,12 +5108,12 @@
       <c r="D31" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="26"/>
+      <c r="F31" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5126,12 +5127,12 @@
       <c r="D32" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="26"/>
+      <c r="F32" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
